--- a/output/3_Regression/analysis_01/h20/coef_rf_h20.xlsx
+++ b/output/3_Regression/analysis_01/h20/coef_rf_h20.xlsx
@@ -455,2451 +455,2451 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1546083736164511</v>
+        <v>0.1190505956237286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_1</t>
+          <t>Core CPI - Services - Dining Out_lag_2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1516754619543615</v>
+        <v>0.1042045463269938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Core CPI - Services - Dining Out_lag_2</t>
+          <t>Core CPI - Services - Dining Out_lag_1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07403790008336554</v>
+        <v>0.046804193379188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04911692390991101</v>
+        <v>0.04150611398279845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.04087878422557008</v>
+        <v>0.0370902175009151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.03229022033219615</v>
+        <v>0.03614654205732027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03069749177673809</v>
+        <v>0.02883384594267746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
+          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02687992845946637</v>
+        <v>0.02782782870706596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02345470073104115</v>
+        <v>0.02737295830788144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02225908942453538</v>
+        <v>0.02456583556924419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02057872525167586</v>
+        <v>0.02324180766590239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0203185033246743</v>
+        <v>0.02205125123071374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
+          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02027862516301044</v>
+        <v>0.02016140645387959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01882283859669411</v>
+        <v>0.01955847228168645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01825638627511454</v>
+        <v>0.0171890402410766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
+          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0166668569562826</v>
+        <v>0.01671806569242569</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
+          <t>General Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01621283611139694</v>
+        <v>0.01588673874329161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01517579688527436</v>
+        <v>0.01489007821943492</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01357598379231513</v>
+        <v>0.0136211061656499</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01283860825376728</v>
+        <v>0.01175648620602596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
+          <t>Terms of Trade - Imports_lag_2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01039895413868904</v>
+        <v>0.01127695660048006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_3</t>
+          <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.009728192767829914</v>
+        <v>0.01000172636618904</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Terms of Trade - Imports_lag_1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.009727117346141867</v>
+        <v>0.009150450442681505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_1</t>
+          <t>Terms of Trade - Imports_lag_3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.008093821924682497</v>
+        <v>0.009025365239520194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_1</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.008058251758575542</v>
+        <v>0.008474386973494329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_2</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.006529588846045489</v>
+        <v>0.008220121441598571</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_3</t>
+          <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.005817376932165166</v>
+        <v>0.008062157071173304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
+          <t>Terms of Trade - Exports_lag_1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.005234214621403976</v>
+        <v>0.007025353151823789</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.005214858417988953</v>
+        <v>0.006613698387803945</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_1</t>
+          <t>Business Expectations - Demand (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.005214743107431028</v>
+        <v>0.006398531757637857</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_1</t>
+          <t>Private Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.005103152846671541</v>
+        <v>0.006389939851586073</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_1</t>
+          <t>Terms of Trade - Exports_lag_2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.004904229717741616</v>
+        <v>0.006082058111836965</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
+          <t>Private Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004897772857732403</v>
+        <v>0.00522091502242407</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.004843675644491421</v>
+        <v>0.005013302657015776</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_1</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.004731869695491826</v>
+        <v>0.004794044821076602</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_1</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004613707675353345</v>
+        <v>0.004774586428643005</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_2</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.004544320005429699</v>
+        <v>0.004774371674793114</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_1</t>
+          <t>Electricity Production - Lima (GWh)_lag_3</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.004478958702068494</v>
+        <v>0.004624418385589264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
+          <t>Chicken Placements (thousands)_lag_2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.004276284935533036</v>
+        <v>0.004615354630725006</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.003823682639257176</v>
+        <v>0.004523794473027563</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_1</t>
+          <t>Monetary Policy Rate_lag_3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.003805405295673232</v>
+        <v>0.004371661752267241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Business Expectations - Inventory (MoM)_lag_2</t>
+          <t>Electricity Production - Lima (GWh)_lag_2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.003713055904093263</v>
+        <v>0.004270580036241691</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.003617148199276588</v>
+        <v>0.004034084614886949</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_2</t>
+          <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.003406201729024721</v>
+        <v>0.003913288243687854</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_1</t>
+          <t>Reserve Requirement Rate_lag_1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.00334933947869135</v>
+        <v>0.003876552288357103</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
+          <t>Business Expectations - Sector (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.003260192379914327</v>
+        <v>0.00381243245440614</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.003136406283008196</v>
+        <v>0.003795984809195355</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.002849095906637392</v>
+        <v>0.003639531589978367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_2</t>
+          <t>Monthly Income (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.002738188792315807</v>
+        <v>0.003631343588698173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_3</t>
+          <t>Business Expectations - Inventory (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.002709350570518691</v>
+        <v>0.003600448720094436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.002694915017655704</v>
+        <v>0.003478352531114351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.002547860477254965</v>
+        <v>0.003469592777813378</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.002529784278269767</v>
+        <v>0.003429516883525443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Corn Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.002255705835037326</v>
+        <v>0.003421077903710547</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.002250037510963561</v>
+        <v>0.003332326249153556</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
+          <t>Wheat Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.002186396881719299</v>
+        <v>0.003324161557586438</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.002097354904336083</v>
+        <v>0.003147259997469873</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.002054200355374109</v>
+        <v>0.003134778430695159</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.001992495620454096</v>
+        <v>0.003089825331709611</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_2</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.001956306281423248</v>
+        <v>0.002955702968299048</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_3</t>
+          <t>Terms of Trade - Exports_lag_3</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.001795793732532555</v>
+        <v>0.002876403276441405</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_3</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.001696256172390723</v>
+        <v>0.002815650922915065</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.001555447172536264</v>
+        <v>0.002768085557747368</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
+          <t>Monthly Income (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.00155134255845357</v>
+        <v>0.002733003738625148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.001487807487363549</v>
+        <v>0.002677382312405183</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_1</t>
+          <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.001481459871293969</v>
+        <v>0.002625585601430813</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_1</t>
+          <t>Fishmeal Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0013570516767353</v>
+        <v>0.002614432674088232</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_2</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.00132335795183302</v>
+        <v>0.002614359427282483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Business Expectations - Sales (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.001240331503342174</v>
+        <v>0.002515226998670737</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.001238229586309674</v>
+        <v>0.002511274462266184</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
+          <t>GDP - Agriculture_lag_2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.001236174378883175</v>
+        <v>0.002437251899067966</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.001190974253809179</v>
+        <v>0.002417821904521243</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.001151149424764013</v>
+        <v>0.002347515986314349</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.001145845577114549</v>
+        <v>0.002237120726691426</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.001097563941784311</v>
+        <v>0.002207606697811005</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
+          <t>GDP - Construction_lag_2</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.001025712116649127</v>
+        <v>0.002198299420507001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_2</t>
+          <t>Wheat Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.0009965145160877082</v>
+        <v>0.00219382331083011</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_3</t>
+          <t>Fishmeal Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.0009618972646826218</v>
+        <v>0.00217890061770209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
+          <t>GDP - Other Services (index 2007=100)_lag_3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.0008230929790416909</v>
+        <v>0.002000128204407513</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_3</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.000807630020890361</v>
+        <v>0.001944232234994773</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.0007976327852408445</v>
+        <v>0.00173273113322437</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_1</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.0007912596574125132</v>
+        <v>0.001708448288976911</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_1</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.0007748181403073565</v>
+        <v>0.001707029146277726</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_2</t>
+          <t>Fishmeal Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.0007373482478517027</v>
+        <v>0.001663924119027854</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_3</t>
+          <t>Monthly Income (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.0007351017239033316</v>
+        <v>0.001630558247875802</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Terms of Trade - Imports_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0007156665142956816</v>
+        <v>0.00162486478021281</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_3</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.0006818393675907348</v>
+        <v>0.001591007266809061</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.000675097950299882</v>
+        <v>0.001524508955464957</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_1</t>
+          <t>GDP - Non-Primary Manufacturing_lag_3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.0006438630915222876</v>
+        <v>0.001469984579219785</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_1</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.0006264614574146919</v>
+        <v>0.001452830216458625</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
+          <t>Copper Price (¢US$ per lb)_lag_1</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.0006224898258621662</v>
+        <v>0.001309032647275203</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.0006180202228126272</v>
+        <v>0.00127902224804524</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Terms of Trade - Exports_lag_2</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.0005484279460588662</v>
+        <v>0.00124028152423493</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GDP - Mining_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0005221586093802044</v>
+        <v>0.001239239091227062</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_1</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.0005156293781473033</v>
+        <v>0.001225287125716904</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.000492679427792333</v>
+        <v>0.001197023317404866</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.0004811237449481679</v>
+        <v>0.001135889769855232</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_1</t>
+          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.0004763408862492734</v>
+        <v>0.001106885023026713</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_3</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.0004723299736658011</v>
+        <v>0.001088064038274223</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_1</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0003771247417782601</v>
+        <v>0.001071131215803341</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Coffee Price (US$ per ton)_lag_2</t>
+          <t>Business Expectations - Demand (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.0003713500986106618</v>
+        <v>0.001065573565103108</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
+          <t>GDP - Agriculture_lag_1</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.0003710113502816924</v>
+        <v>0.001013248159890643</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.0003592351031761949</v>
+        <v>0.001007764126114408</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.0003307803998241965</v>
+        <v>0.001004455831424398</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_3</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0003183252541078142</v>
+        <v>0.0009890566812972199</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
+          <t>Public Consumption (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.0003166721953262093</v>
+        <v>0.0009733988184596881</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.0003152223542994029</v>
+        <v>0.0009567981805343974</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_2</t>
+          <t>Corn Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.0003091879171043939</v>
+        <v>0.00092781668668551</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.0003088797747573816</v>
+        <v>0.0009223323120008697</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_3</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.0002910636569289609</v>
+        <v>0.0009219675633410049</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
+          <t>Underemployed (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.0002902624348234352</v>
+        <v>0.0008852843220712011</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_2</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.0002773746083080495</v>
+        <v>0.0008792794146853473</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_2</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.0002720837825094922</v>
+        <v>0.0008775810392427276</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Business Expectations - Current Situation_lag_2</t>
+          <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.0002538257290748009</v>
+        <v>0.0008716985337656821</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.0002500314700865696</v>
+        <v>0.0008614568651342063</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_2</t>
+          <t>General Index (base 31/12/91 = 100)_lag_2</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.0002445843995573956</v>
+        <v>0.0008310697098458496</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Gold (US$ per oz troy)_lag_3</t>
+          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.0002430992896936464</v>
+        <v>0.0008104562079279448</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_3</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.0002229796235732828</v>
+        <v>0.0008076681643672944</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Independent Worker (3-month MA, thousands)_lag_1</t>
+          <t>Public Consumption (mill S/ 2007)_lag_3</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.0002217082310182584</v>
+        <v>0.000807339539442911</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_2</t>
+          <t>GDP - Construction_lag_1</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.0002098819290677407</v>
+        <v>0.0008066963439635072</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Business Expectations - Economy (3 months)_lag_1</t>
+          <t>Business Expectations - Inventory (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.0001928145397187354</v>
+        <v>0.0007831885713151155</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
+          <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.0001870274494920162</v>
+        <v>0.0007723463109033871</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_1</t>
+          <t>GDP - Mining_lag_1</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.0001868979015884985</v>
+        <v>0.0007597842654799509</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.0001761092204721896</v>
+        <v>0.0007582809507756473</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.0001753055659924772</v>
+        <v>0.000757905277373714</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
+          <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.0001554861380814717</v>
+        <v>0.0007565039788301707</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Electricity Production - Lima (GWh)_lag_3</t>
+          <t>Business Expectations - Current Situation_lag_1</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.0001455370609204658</v>
+        <v>0.0007410242773476592</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_2</t>
+          <t>Business Expectations - Orders (MoM)_lag_1</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.0001411088555272577</v>
+        <v>0.000735688899708056</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.0001398893739361786</v>
+        <v>0.0007282400943867298</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Sector (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.0001391318641899872</v>
+        <v>0.0007238575371958894</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Underemployed (3-month MA, thousands)_lag_1</t>
+          <t>Gold (US$ per oz troy)_lag_3</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.0001236497139143823</v>
+        <v>0.0006917444090981612</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
+          <t>GDP - Fishing_lag_2</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.0001180514995627404</v>
+        <v>0.0006794008991171024</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fishmeal Price (US$ per ton)_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.0001159308077069299</v>
+        <v>0.0006762760231872092</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
+          <t>Real Exchange Rate Index (monthly %)_lag_1</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.0001031922284433399</v>
+        <v>0.0006681589457430309</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_3</t>
+          <t>Business Expectations - Sales (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9.573890129945355e-05</v>
+        <v>0.0006656817721342839</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Monthly Income (3-month MA)_lag_3</t>
+          <t>Monetary Policy Rate_lag_1</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>9.325039427048246e-05</v>
+        <v>0.000646131269118994</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Business Expectations - Demand (3 months)_lag_3</t>
+          <t>GDP - Construction_lag_3</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8.34674690882989e-05</v>
+        <v>0.0006415971234673268</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Wheat Price (US$ per ton)_lag_3</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_1</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7.972621286613549e-05</v>
+        <v>0.0006412151932518089</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Real Exchange Rate Index (monthly %)_lag_2</t>
+          <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>7.960948830922707e-05</v>
+        <v>0.0006315448098307527</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>GDP - Agriculture_lag_2</t>
+          <t>GDP - Fishing_lag_3</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7.913374888382187e-05</v>
+        <v>0.0006298412619910557</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Private Consumption (mill S/ 2007)_lag_2</t>
+          <t>Independent Worker (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>7.099238055109686e-05</v>
+        <v>0.0006288191706807926</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
+          <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6.309229781591144e-05</v>
+        <v>0.0006272714641889322</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
+          <t>Business Expectations - Current Situation_lag_3</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.0006236799108776325</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Business Expectations - Sector (3 months)_lag_3</t>
+          <t>GDP Growth - Commerce (annual %)_lag_2</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.0005959250902622288</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.000577074419489949</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_2</t>
+          <t>Business Expectations - Economy (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0005727764203243422</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Coffee Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.0005717874690679453</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
+          <t>Business Expectations - Sector (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.0005593486615593595</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Monetary Policy Rate_lag_3</t>
+          <t>Chicken Placements (thousands)_lag_1</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.0005574535017986738</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.0005412212667306391</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_3</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.000517056775479109</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_1</t>
+          <t>Business Expectations - Economy (3 months)_lag_1</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0004507984650394729</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tax Revenue - VAT (mill S/)_lag_3</t>
+          <t>Copper Price (¢US$ per lb)_lag_3</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.0004348365186629861</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GDP - Fishing_lag_3</t>
+          <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.0004321064503921325</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Public Consumption (mill S/ 2007)_lag_2</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_2</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.000424610230371735</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_1</t>
+          <t>Business Expectations - Current Situation_lag_2</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.0003989942017431199</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Employment Ratio (3-month MA)_lag_2</t>
+          <t>Chicken Placements (thousands)_lag_3</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.0003735413709004673</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_3</t>
+          <t>Reserve Requirement Rate_lag_3</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0003603641672818942</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_2</t>
+          <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.0003514579878460423</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Chicken Placements (thousands)_lag_1</t>
+          <t>GDP - Other Services (index 2007=100)_lag_2</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.0003478877023916314</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
+          <t>GDP Growth - Commerce (annual %)_lag_1</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>0.0003408806132014082</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Copper Price (¢US$ per lb)_lag_2</t>
+          <t>Business Expectations - Orders (MoM)_lag_2</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>0.0003377144990995698</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.0003183444458547031</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
+          <t>Monetary Policy Rate_lag_2</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.0002918774326252932</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Crude Oil Price (US$ per barrel)_lag_2</t>
+          <t>GDP - Fishing_lag_1</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>0.0002782608647390448</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Business Expectations - Sales (MoM)_lag_3</t>
+          <t>Public Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>0.0002687938334817026</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
+          <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>0.0002631592450614784</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_2</t>
+          <t>Reserve Requirement Rate_lag_2</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>0.0002620181288233639</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Soybean Oil Price (US$ per ton)_lag_3</t>
+          <t>GDP - Agriculture_lag_3</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>0.0002595001445804648</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_3</t>
+          <t>Unemployment Rate (3-month MA, %)_lag_2</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>0.0002495027152552554</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_1</t>
+          <t>Employment Ratio (3-month MA)_lag_1</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>0.0002373619016766881</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_2</t>
+          <t>Coffee Price (US$ per ton)_lag_3</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>0.0002169882163102339</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Labor Force (3-month MA, thousands)_lag_3</t>
+          <t>Underemployed (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.0002103109140780327</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.0001958882282399331</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>GDP - Other Services (index 2007=100)_lag_2</t>
+          <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.0001913041064899657</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
+          <t>Tax Revenue - VAT (mill S/)_lag_1</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.0001886190208477989</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
+          <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.000183026695130001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
+          <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.0001779124698230664</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>GDP - Non-Primary Manufacturing_lag_3</t>
+          <t>Business Expectations - Demand (3 months)_lag_2</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.0001699816464553902</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Corn Price (US$ per ton)_lag_1</t>
+          <t>Soybean Oil Price (US$ per ton)_lag_1</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.0001617773087600169</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
+          <t>GDP - Mining_lag_2</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.0001506849128924451</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>General Index (base 31/12/91 = 100)_lag_2</t>
+          <t>Private Consumption (mill S/ 2007)_lag_2</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.0001280988707558888</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_3</t>
+          <t>GDP - Mining_lag_3</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.0001233435696134134</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_3</t>
+          <t>Gold (US$ per oz troy)_lag_2</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.0001131202072284711</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>GDP - Construction_lag_1</t>
+          <t>Business Expectations - Orders (MoM)_lag_3</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>7.709433987209591e-05</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
+          <t>Employment Ratio (3-month MA)_lag_2</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>6.882561744722138e-05</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Reserve Requirement Rate_lag_2</t>
+          <t>Labor Force (3-month MA, thousands)_lag_3</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>5.99045726310093e-05</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Business Expectations - Orders (MoM)_lag_1</t>
+          <t>Coffee Price (US$ per ton)_lag_2</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2.274828948232348e-05</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>GDP Growth - Commerce (annual %)_lag_3</t>
+          <t>GDP - Other Services (index 2007=100)_lag_1</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1.757678385813601e-05</v>
       </c>
     </row>
   </sheetData>
